--- a/biology/Botanique/Myristicaceae/Myristicaceae.xlsx
+++ b/biology/Botanique/Myristicaceae/Myristicaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myristicaceae (les myristicacées) est une famille de plantes à fleurs de l'ordre des Magnoliales. Elle comprend dans les 300 espèces réparties en une vingtaine de genres.
 Ce sont des arbres à feuilles persistantes, parcheminées, producteurs d'huiles essentielles, des régions tropicales.
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Myristica vient du grec μυριστικός - muristikos, "odorant", dérivé de μυρίζω - murizo, "parfumer", lui-même de μύρον - muron, "parfum".
 </t>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (13 avr. 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (13 avr. 2010) :
 Brochoneura
 Cephalosphaera
 Coelocaryon
@@ -566,7 +582,7 @@
 Scyphocephalium
 Staudtia
 Virola
-Selon NCBI  (13 avr. 2010)[2] :
+Selon NCBI  (13 avr. 2010) :
 Bicuiba
 Brochoneura
 Cephalosphaera
@@ -583,7 +599,7 @@
 Pycnanthus
 Staudtia
 Virola
-Selon DELTA Angio           (13 avr. 2010)[3] :
+Selon DELTA Angio           (13 avr. 2010) :
 Bicniba
 Brochoneura
 Cephalosphaera
@@ -603,7 +619,7 @@
 Scyphocephalium
 Staudtia
 Virola
-Selon ITIS      (13 avr. 2010)[4] :
+Selon ITIS      (13 avr. 2010) :
 Horsfieldia Wild.
 Myristica Gronov.
 Virola Aublet</t>
